--- a/files/productsQBO.xlsx
+++ b/files/productsQBO.xlsx
@@ -15,12 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
-    <t>Hello</t>
+    <t>Qty</t>
   </si>
   <si>
-    <t>world!</t>
+    <t>nroPart</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Custom Design</t>
   </si>
 </sst>
 </file>
@@ -371,16 +380,26 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/files/productsQBO.xlsx
+++ b/files/productsQBO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Qty</t>
   </si>
@@ -29,34 +29,16 @@
     <t>Price</t>
   </si>
   <si>
-    <t xml:space="preserve">04-KR64771                    </t>
-  </si>
-  <si>
-    <t>ARRANQUE MITSB 11 DIENTES 24V  CAMION SINOTRUK  HOWO CNHTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-K22012                     </t>
-  </si>
-  <si>
-    <t>ALTERNADOR MAZDA 6 2008 S/MITSB 110AMP 12V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06-ZM-655                     </t>
-  </si>
-  <si>
-    <t>AUTOMATICO MARELLI MAQUINARIA 12V 3H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44-ME-19002                   </t>
-  </si>
-  <si>
-    <t>ELECTRO VENTILADOR UNIVERSAL 12"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44-56940                      </t>
-  </si>
-  <si>
-    <t>JGO CORNETA PITO DTS 24V</t>
+    <t xml:space="preserve">04-STR-6051                   </t>
+  </si>
+  <si>
+    <t>ARRANQUE TOYOTA DINA VIEJO 11D  12V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40-LS-15T                     </t>
+  </si>
+  <si>
+    <t>SWITCH UNIVERSAL  DE IGNICION</t>
   </si>
 </sst>
 </file>
@@ -395,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,7 +401,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -428,12 +410,12 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>100.22</v>
+        <v>61.72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -442,49 +424,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>82.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>14.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>4.05</v>
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>
